--- a/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
+++ b/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\4pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\4pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A5B44-E46D-4180-A29D-9F7BF67F77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDB2BA-E7C4-4BF1-BA93-613FF871471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2085" windowWidth="15375" windowHeight="7965" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="1485" yWindow="2115" windowWidth="20940" windowHeight="10650" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MARL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="37">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -127,6 +128,21 @@
   </si>
   <si>
     <t>tiempo_en_acabar</t>
+  </si>
+  <si>
+    <t>push_out</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>good_pred</t>
+  </si>
+  <si>
+    <t>bad_pred</t>
+  </si>
+  <si>
+    <t>rate_pred</t>
   </si>
   <si>
     <t>completion_time</t>
@@ -5505,6 +5521,2628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>push_out vs total de movimientos (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>push_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>0.81019149366693344</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0758827893869212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1417027623056457</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.894791401024023</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.92923478554917</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>113.7768283380525</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>191.57387943571868</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>177.55229637692088</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>317.32380938089096</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>353.25671641499991</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>269.80315236416533</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>596.83067005470343</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>611.1767548271331</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>731.17007737685901</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>553.68999703851694</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>761.33578797484756</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>999.4769388445394</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1243.81725819948</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1161.9007404977547</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>940.90731443589823</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>0.81019149366693344</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0758827893869212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1417027623056457</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.894791401024023</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.92923478554917</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>113.7768283380525</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>191.57387943571868</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>177.55229637692088</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>317.32380938089096</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>353.25671641499991</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>269.80315236416533</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>596.83067005470343</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>611.1767548271331</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>731.17007737685901</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>553.68999703851694</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>761.33578797484756</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>999.4769388445394</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1243.81725819948</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1161.9007404977547</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>940.90731443589823</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435.42500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>357.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>551.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>978.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1030.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>951.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1543.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1776.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1787.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2102.2249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9A7-4069-86F3-117637D03759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.81019149366693344</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0758827893869212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1417027623056457</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.894791401024023</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.92923478554917</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>113.7768283380525</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>191.57387943571868</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>177.55229637692088</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>317.32380938089096</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>353.25671641499991</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>269.80315236416533</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>596.83067005470343</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>611.1767548271331</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>731.17007737685901</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>553.68999703851694</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>761.33578797484756</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>999.4769388445394</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1243.81725819948</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1161.9007404977547</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>940.90731443589823</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.81019149366693344</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0758827893869212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1417027623056457</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.894791401024023</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.92923478554917</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>113.7768283380525</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>191.57387943571868</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>177.55229637692088</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>317.32380938089096</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>353.25671641499991</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>269.80315236416533</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>596.83067005470343</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>611.1767548271331</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>731.17007737685901</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>553.68999703851694</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>761.33578797484756</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>999.4769388445394</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1243.81725819948</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1161.9007404977547</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>940.90731443589823</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>267.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>610.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>805.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1006.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1104.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1805.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2187.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2598.4499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3451.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4269.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4026.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5252.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7538.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7590.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7632.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10736.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12308.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12004.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14699.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9A7-4069-86F3-117637D03759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>predicciones (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>good_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$24:$D$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.9212243189983473</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.209102391705535</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26.913334317816592</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>101.83113221004432</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.269079695847594</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>783.11561185974381</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1292.0982138486095</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1632.3580740913694</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2304.4179286196331</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2488.1819589606876</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2112.9506674498848</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4865.25928045214</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5159.6054868068368</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7664.7355449303077</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4979.255421631462</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>7376.55544131855</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>9590.9653544431094</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13258.188946884211</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>11112.577130735148</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>11216.272809673703</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$24:$D$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.9212243189983473</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.209102391705535</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26.913334317816592</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>101.83113221004432</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.269079695847594</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>783.11561185974381</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1292.0982138486095</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1632.3580740913694</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2304.4179286196331</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2488.1819589606876</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2112.9506674498848</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4865.25928045214</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5159.6054868068368</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7664.7355449303077</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4979.255421631462</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>7376.55544131855</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>9590.9653544431094</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13258.188946884211</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>11112.577130735148</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>11216.272809673703</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$24:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>60.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>409.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>789.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1015.425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3333.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5610.7250000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7516.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11420.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15606.225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14896.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24173.075000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37009.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43907.724999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44665.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48687.025000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77176.074999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90984.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88190.774999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121330.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E739-48E7-912A-1C5FAA78E8A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bad_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$46:$D$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>9.9608206849610905</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>27.292856208172864</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>36.382018663775128</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100.5610893552158</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>84.954101484121168</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>873.27100384350717</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1335.4770932766553</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1324.3922938755422</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2355.157839448972</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2537.5431061135937</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2346.2719735184023</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4133.6039263422172</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5151.6389983412855</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5398.5072651304854</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4443.7759062680288</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5796.8926644765033</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7269.7591042161202</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>7786.4272146621115</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7136.2062189484705</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>6470.6160438693541</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$46:$D$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>9.9608206849610905</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>27.292856208172864</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>36.382018663775128</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>100.5610893552158</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>84.954101484121168</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>873.27100384350717</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1335.4770932766553</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1324.3922938755422</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2355.157839448972</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2537.5431061135937</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2346.2719735184023</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4133.6039263422172</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5151.6389983412855</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5398.5072651304854</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4443.7759062680288</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5796.8926644765033</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7269.7591042161202</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>7786.4272146621115</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7136.2062189484705</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>6470.6160438693541</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$46:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>125.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1427.675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3539.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5565.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6934.0249999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11071.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14738.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14047.325000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20444.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32824.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35985.775000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37832.050000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37571.525000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56065.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62645.324999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77726.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E739-48E7-912A-1C5FAA78E8A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>ratio de predicciones (accuarcy) (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rate_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$68:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>4.522025867763025E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6674678283691845E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2072142786315231E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.743416490252568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5811388300841885E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6674678283691841E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.038218101250997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.5811388300841906E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5811388300841903E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5220258677630271E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.6674678283691862E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5.0064061525313563E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.3852900965351445E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.0382181012509998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$68:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>4.522025867763025E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6674678283691845E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2072142786315231E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.743416490252568E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5811388300841885E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6674678283691841E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.038218101250997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.5811388300841906E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5811388300841903E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5220258677630271E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.6674678283691862E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5.0064061525313563E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.3852900965351445E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.0382181012509998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$68:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.67249999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60750000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56750000000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59750000000000036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50750000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49749999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49749999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45749999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E2C-457A-B9B9-1DC854B61389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5705,6 +8343,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7770,6 +10528,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8966,6 +13272,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76158A2B-04FE-43DC-8B13-C15EB0D5D4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC6761C-B68A-4F99-8596-E808C82DE4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D88FD77-B9FF-4C9C-A1ED-EBA800BEE52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -9265,8 +13690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9291,7 +13716,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -11700,4 +16125,1433 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="H2">
+        <v>268</v>
+      </c>
+      <c r="I2">
+        <v>0.81019149366693344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1.0374401434695166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>610.54999999999995</v>
+      </c>
+      <c r="H3">
+        <v>618</v>
+      </c>
+      <c r="I3">
+        <v>4.0758827893869212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2.1895731933942675</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>805.65</v>
+      </c>
+      <c r="H4">
+        <v>826</v>
+      </c>
+      <c r="I4">
+        <v>6.1417027623056457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>7.75</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1006.85</v>
+      </c>
+      <c r="H5">
+        <v>1057</v>
+      </c>
+      <c r="I5">
+        <v>20.894791401024023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>5.5340438221648576</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1104.7</v>
+      </c>
+      <c r="H6">
+        <v>1153</v>
+      </c>
+      <c r="I6">
+        <v>14.92923478554917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>87.924999999999997</v>
+      </c>
+      <c r="C7">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>38.73869562158152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1805.75</v>
+      </c>
+      <c r="H7">
+        <v>2099</v>
+      </c>
+      <c r="I7">
+        <v>113.7768283380525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>145.625</v>
+      </c>
+      <c r="C8">
+        <v>292</v>
+      </c>
+      <c r="D8">
+        <v>60.630739220807286</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>2187.25</v>
+      </c>
+      <c r="H8">
+        <v>2629</v>
+      </c>
+      <c r="I8">
+        <v>191.57387943571868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>155.9</v>
+      </c>
+      <c r="C9">
+        <v>278</v>
+      </c>
+      <c r="D9">
+        <v>52.57024604498983</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>2598.4499999999998</v>
+      </c>
+      <c r="H9">
+        <v>2934</v>
+      </c>
+      <c r="I9">
+        <v>177.55229637692088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>314.05</v>
+      </c>
+      <c r="C10">
+        <v>621</v>
+      </c>
+      <c r="D10">
+        <v>99.383471256413443</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>3451.4</v>
+      </c>
+      <c r="H10">
+        <v>4415</v>
+      </c>
+      <c r="I10">
+        <v>317.32380938089096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>435.42500000000001</v>
+      </c>
+      <c r="C11">
+        <v>681</v>
+      </c>
+      <c r="D11">
+        <v>114.42809577443869</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4269.5</v>
+      </c>
+      <c r="H11">
+        <v>5236</v>
+      </c>
+      <c r="I11">
+        <v>353.25671641499991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>357.92500000000001</v>
+      </c>
+      <c r="C12">
+        <v>560</v>
+      </c>
+      <c r="D12">
+        <v>85.634700461185318</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>4026.55</v>
+      </c>
+      <c r="H12">
+        <v>4775</v>
+      </c>
+      <c r="I12">
+        <v>269.80315236416533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>551.97500000000002</v>
+      </c>
+      <c r="C13">
+        <v>899</v>
+      </c>
+      <c r="D13">
+        <v>169.63860341688374</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>5252.15</v>
+      </c>
+      <c r="H13">
+        <v>6384</v>
+      </c>
+      <c r="I13">
+        <v>596.83067005470343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>983</v>
+      </c>
+      <c r="C14">
+        <v>1409</v>
+      </c>
+      <c r="D14">
+        <v>190.21620627119322</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>7068</v>
+      </c>
+      <c r="H14">
+        <v>8619</v>
+      </c>
+      <c r="I14">
+        <v>611.1767548271331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>978.77499999999998</v>
+      </c>
+      <c r="C15">
+        <v>1709</v>
+      </c>
+      <c r="D15">
+        <v>200.67558811840243</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>7538.6</v>
+      </c>
+      <c r="H15">
+        <v>10379</v>
+      </c>
+      <c r="I15">
+        <v>731.17007737685901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1030.8499999999999</v>
+      </c>
+      <c r="C16">
+        <v>1462</v>
+      </c>
+      <c r="D16">
+        <v>171.75258741006297</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>7590.05</v>
+      </c>
+      <c r="H16">
+        <v>9024</v>
+      </c>
+      <c r="I16">
+        <v>553.68999703851694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>951.9</v>
+      </c>
+      <c r="C17">
+        <v>1423</v>
+      </c>
+      <c r="D17">
+        <v>209.28079530155489</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>7632.65</v>
+      </c>
+      <c r="H17">
+        <v>9601</v>
+      </c>
+      <c r="I17">
+        <v>761.33578797484756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1543.15</v>
+      </c>
+      <c r="C18">
+        <v>2435</v>
+      </c>
+      <c r="D18">
+        <v>241.67264890915786</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>10736.95</v>
+      </c>
+      <c r="H18">
+        <v>14237</v>
+      </c>
+      <c r="I18">
+        <v>999.4769388445394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1776.625</v>
+      </c>
+      <c r="C19">
+        <v>2664</v>
+      </c>
+      <c r="D19">
+        <v>272.49838272867527</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>12308.75</v>
+      </c>
+      <c r="H19">
+        <v>16066</v>
+      </c>
+      <c r="I19">
+        <v>1243.81725819948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>1787.6</v>
+      </c>
+      <c r="C20">
+        <v>2719</v>
+      </c>
+      <c r="D20">
+        <v>298.571281700719</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>12004.45</v>
+      </c>
+      <c r="H20">
+        <v>15341</v>
+      </c>
+      <c r="I20">
+        <v>1161.9007404977547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2102.2249999999999</v>
+      </c>
+      <c r="C21">
+        <v>2539</v>
+      </c>
+      <c r="D21">
+        <v>230.0016151002375</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>14699.3</v>
+      </c>
+      <c r="H21">
+        <v>16575</v>
+      </c>
+      <c r="I21">
+        <v>940.90731443589823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>60.625</v>
+      </c>
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>5.9212243189983473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>187.52500000000001</v>
+      </c>
+      <c r="C25">
+        <v>240</v>
+      </c>
+      <c r="D25">
+        <v>17.209102391705535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>409.32499999999999</v>
+      </c>
+      <c r="C26">
+        <v>491</v>
+      </c>
+      <c r="D26">
+        <v>26.913334317816592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>789.4</v>
+      </c>
+      <c r="C27">
+        <v>1087</v>
+      </c>
+      <c r="D27">
+        <v>101.83113221004432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1015.425</v>
+      </c>
+      <c r="C28">
+        <v>1307</v>
+      </c>
+      <c r="D28">
+        <v>89.269079695847594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>3333.7</v>
+      </c>
+      <c r="C29">
+        <v>5419</v>
+      </c>
+      <c r="D29">
+        <v>783.11561185974381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>5610.7250000000004</v>
+      </c>
+      <c r="C30">
+        <v>7912</v>
+      </c>
+      <c r="D30">
+        <v>1292.0982138486095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>7516.3</v>
+      </c>
+      <c r="C31">
+        <v>11025</v>
+      </c>
+      <c r="D31">
+        <v>1632.3580740913694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>11420.4</v>
+      </c>
+      <c r="C32">
+        <v>18245</v>
+      </c>
+      <c r="D32">
+        <v>2304.4179286196331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>15606.225</v>
+      </c>
+      <c r="C33">
+        <v>20819</v>
+      </c>
+      <c r="D33">
+        <v>2488.1819589606876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>14896.3</v>
+      </c>
+      <c r="C34">
+        <v>20083</v>
+      </c>
+      <c r="D34">
+        <v>2112.9506674498848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>24173.075000000001</v>
+      </c>
+      <c r="C35">
+        <v>33634</v>
+      </c>
+      <c r="D35">
+        <v>4865.25928045214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>37009.699999999997</v>
+      </c>
+      <c r="C36">
+        <v>52356</v>
+      </c>
+      <c r="D36">
+        <v>5159.6054868068368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>43907.724999999999</v>
+      </c>
+      <c r="C37">
+        <v>76002</v>
+      </c>
+      <c r="D37">
+        <v>7664.7355449303077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>44665.9</v>
+      </c>
+      <c r="C38">
+        <v>56044</v>
+      </c>
+      <c r="D38">
+        <v>4979.255421631462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>48687.025000000001</v>
+      </c>
+      <c r="C39">
+        <v>68102</v>
+      </c>
+      <c r="D39">
+        <v>7376.55544131855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>77176.074999999997</v>
+      </c>
+      <c r="C40">
+        <v>110359</v>
+      </c>
+      <c r="D40">
+        <v>9590.9653544431094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>90984.95</v>
+      </c>
+      <c r="C41">
+        <v>129093</v>
+      </c>
+      <c r="D41">
+        <v>13258.188946884211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>88190.774999999994</v>
+      </c>
+      <c r="C42">
+        <v>112731</v>
+      </c>
+      <c r="D42">
+        <v>11112.577130735148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>121330.95</v>
+      </c>
+      <c r="C43">
+        <v>144997</v>
+      </c>
+      <c r="D43">
+        <v>11216.272809673703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>125.75</v>
+      </c>
+      <c r="C46">
+        <v>147</v>
+      </c>
+      <c r="D46">
+        <v>9.9608206849610905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>300.64999999999998</v>
+      </c>
+      <c r="C47">
+        <v>353</v>
+      </c>
+      <c r="D47">
+        <v>27.292856208172864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>573.20000000000005</v>
+      </c>
+      <c r="C48">
+        <v>643</v>
+      </c>
+      <c r="D48">
+        <v>36.382018663775128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>994.67499999999995</v>
+      </c>
+      <c r="C49">
+        <v>1372</v>
+      </c>
+      <c r="D49">
+        <v>100.5610893552158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1427.675</v>
+      </c>
+      <c r="C50">
+        <v>1648</v>
+      </c>
+      <c r="D50">
+        <v>84.954101484121168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>3539.6</v>
+      </c>
+      <c r="C51">
+        <v>6315</v>
+      </c>
+      <c r="D51">
+        <v>873.27100384350717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>5565.6</v>
+      </c>
+      <c r="C52">
+        <v>8550</v>
+      </c>
+      <c r="D52">
+        <v>1335.4770932766553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>6934.0249999999996</v>
+      </c>
+      <c r="C53">
+        <v>10358</v>
+      </c>
+      <c r="D53">
+        <v>1324.3922938755422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>11071.25</v>
+      </c>
+      <c r="C54">
+        <v>18501</v>
+      </c>
+      <c r="D54">
+        <v>2355.157839448972</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>14738.1</v>
+      </c>
+      <c r="C55">
+        <v>20158</v>
+      </c>
+      <c r="D55">
+        <v>2537.5431061135937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>14047.325000000001</v>
+      </c>
+      <c r="C56">
+        <v>18985</v>
+      </c>
+      <c r="D56">
+        <v>2346.2719735184023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>20444.625</v>
+      </c>
+      <c r="C57">
+        <v>30043</v>
+      </c>
+      <c r="D57">
+        <v>4133.6039263422172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>32824.300000000003</v>
+      </c>
+      <c r="C58">
+        <v>46279</v>
+      </c>
+      <c r="D58">
+        <v>5151.6389983412855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>35985.775000000001</v>
+      </c>
+      <c r="C59">
+        <v>54037</v>
+      </c>
+      <c r="D59">
+        <v>5398.5072651304854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>37832.050000000003</v>
+      </c>
+      <c r="C60">
+        <v>49622</v>
+      </c>
+      <c r="D60">
+        <v>4443.7759062680288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>37571.525000000001</v>
+      </c>
+      <c r="C61">
+        <v>52445</v>
+      </c>
+      <c r="D61">
+        <v>5796.8926644765033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>56065.55</v>
+      </c>
+      <c r="C62">
+        <v>84322</v>
+      </c>
+      <c r="D62">
+        <v>7269.7591042161202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>62167</v>
+      </c>
+      <c r="C63">
+        <v>84942</v>
+      </c>
+      <c r="D63">
+        <v>7786.4272146621115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>62645.324999999997</v>
+      </c>
+      <c r="C64">
+        <v>82643</v>
+      </c>
+      <c r="D64">
+        <v>7136.2062189484705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>77726.25</v>
+      </c>
+      <c r="C65">
+        <v>90679</v>
+      </c>
+      <c r="D65">
+        <v>6470.6160438693541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>0.67249999999999988</v>
+      </c>
+      <c r="C68">
+        <v>0.7</v>
+      </c>
+      <c r="D68">
+        <v>4.522025867763025E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>0.60750000000000015</v>
+      </c>
+      <c r="C69">
+        <v>0.7</v>
+      </c>
+      <c r="D69">
+        <v>2.6674678283691845E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>0.59500000000000031</v>
+      </c>
+      <c r="C70">
+        <v>0.6</v>
+      </c>
+      <c r="D70">
+        <v>2.2072142786315231E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>0.56750000000000012</v>
+      </c>
+      <c r="C71">
+        <v>0.6</v>
+      </c>
+      <c r="D71">
+        <v>4.743416490252568E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0.59750000000000036</v>
+      </c>
+      <c r="C72">
+        <v>0.6</v>
+      </c>
+      <c r="D72">
+        <v>1.5811388300841885E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>0.50750000000000006</v>
+      </c>
+      <c r="C73">
+        <v>0.6</v>
+      </c>
+      <c r="D73">
+        <v>2.6674678283691841E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <v>3.038218101250997E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>0.49749999999999994</v>
+      </c>
+      <c r="C76">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>1.5811388300841906E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>0.49749999999999994</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>1.5811388300841903E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>0.5</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>4.5220258677630271E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80">
+        <v>0.49250000000000005</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>2.6674678283691862E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>0.45749999999999991</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>5.0064061525313563E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>4.3852900965351445E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83">
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>3.0382181012509998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+      <c r="D84">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C85">
+        <v>0.4</v>
+      </c>
+      <c r="D85">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C86">
+        <v>0.4</v>
+      </c>
+      <c r="D86">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C87">
+        <v>0.4</v>
+      </c>
+      <c r="D87">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
+++ b/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\4pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDB2BA-E7C4-4BF1-BA93-613FF871471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5105A274-2385-499C-80EC-77510AFA74CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="2115" windowWidth="20940" windowHeight="10650" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1134,6 +1134,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1176,6 +1234,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2307,6 +2366,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2349,6 +2466,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3298,6 +3416,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3340,6 +3516,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4293,6 +4470,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4335,6 +4570,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -5279,6 +5515,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5321,6 +5615,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6264,6 +6559,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6306,12 +6659,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7245,6 +7600,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7287,6 +7700,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -7905,6 +8319,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7947,6 +8419,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -13690,8 +14163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T79" sqref="T79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16131,8 +16604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
+++ b/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\4pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\escalar_agentes\4pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5105A274-2385-499C-80EC-77510AFA74CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90897C6D-5AE9-4145-AB88-57816E5BAAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="MARL" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>agentes_en_goal</t>
-  </si>
-  <si>
-    <t>MARL</t>
   </si>
   <si>
     <t>Baseline</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>completion_time</t>
+  </si>
+  <si>
+    <t>CR-MAPF</t>
   </si>
 </sst>
 </file>
@@ -239,15 +242,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> sum of costs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL"/>
-              <a:t>MARL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t>/Baseline (40 runs)</a:t>
+              <a:t> sum of costs (40 runs)</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
           </a:p>
@@ -297,7 +292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1479,7 +1474,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>MARL/Baseline (40 runs)</a:t>
+              <a:t>(40 runs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1528,7 +1523,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2752,7 +2747,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3806,7 +3801,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4851,7 +4846,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13864,6 +13859,435 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="MARL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CR-MAPF</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Baseline</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="K2" t="str">
+            <v>makespan</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>10</v>
+          </cell>
+          <cell r="D3">
+            <v>31.302499999999998</v>
+          </cell>
+          <cell r="E3">
+            <v>0.25542856144135467</v>
+          </cell>
+          <cell r="K3">
+            <v>92.655000000000001</v>
+          </cell>
+          <cell r="L3">
+            <v>23.327751177513871</v>
+          </cell>
+          <cell r="M3">
+            <v>30.2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="D4">
+            <v>25.1525</v>
+          </cell>
+          <cell r="E4">
+            <v>0.9981201080030403</v>
+          </cell>
+          <cell r="K4">
+            <v>71.075000000000003</v>
+          </cell>
+          <cell r="L4">
+            <v>16.02309271021047</v>
+          </cell>
+          <cell r="M4">
+            <v>23.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>30</v>
+          </cell>
+          <cell r="D5">
+            <v>36.833333333333329</v>
+          </cell>
+          <cell r="E5">
+            <v>4.6372944698390679</v>
+          </cell>
+          <cell r="K5">
+            <v>72.335833333333341</v>
+          </cell>
+          <cell r="L5">
+            <v>10.70626345105207</v>
+          </cell>
+          <cell r="M5">
+            <v>23.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40</v>
+          </cell>
+          <cell r="D6">
+            <v>41.52375</v>
+          </cell>
+          <cell r="E6">
+            <v>7.4426115838125</v>
+          </cell>
+          <cell r="K6">
+            <v>89.434375000000003</v>
+          </cell>
+          <cell r="L6">
+            <v>7.3338399890081467</v>
+          </cell>
+          <cell r="M6">
+            <v>20.675000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>50</v>
+          </cell>
+          <cell r="D7">
+            <v>41.94</v>
+          </cell>
+          <cell r="E7">
+            <v>5.059235120055205</v>
+          </cell>
+          <cell r="K7">
+            <v>61.522500000000001</v>
+          </cell>
+          <cell r="L7">
+            <v>7.018378997318397</v>
+          </cell>
+          <cell r="M7">
+            <v>22.3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>60</v>
+          </cell>
+          <cell r="D8">
+            <v>32.374583333333327</v>
+          </cell>
+          <cell r="E8">
+            <v>3.404255889283621</v>
+          </cell>
+          <cell r="K8">
+            <v>54.83</v>
+          </cell>
+          <cell r="L8">
+            <v>7.244915075033278</v>
+          </cell>
+          <cell r="M8">
+            <v>21.366666666666671</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>70</v>
+          </cell>
+          <cell r="D9">
+            <v>90.386071428571427</v>
+          </cell>
+          <cell r="E9">
+            <v>17.841585362287621</v>
+          </cell>
+          <cell r="K9">
+            <v>84.139285714285705</v>
+          </cell>
+          <cell r="L9">
+            <v>6.3562188333271594</v>
+          </cell>
+          <cell r="M9">
+            <v>23.714285714285719</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>80</v>
+          </cell>
+          <cell r="D10">
+            <v>103.37718750000001</v>
+          </cell>
+          <cell r="E10">
+            <v>15.50148150366905</v>
+          </cell>
+          <cell r="K10">
+            <v>103.076875</v>
+          </cell>
+          <cell r="L10">
+            <v>8.0548149177603712</v>
+          </cell>
+          <cell r="M10">
+            <v>25.087499999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>90</v>
+          </cell>
+          <cell r="D11">
+            <v>106.1622222222222</v>
+          </cell>
+          <cell r="E11">
+            <v>14.95716513544224</v>
+          </cell>
+          <cell r="K11">
+            <v>91.162222222222226</v>
+          </cell>
+          <cell r="L11">
+            <v>5.6637104489356371</v>
+          </cell>
+          <cell r="M11">
+            <v>23.62222222222222</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="D12">
+            <v>110.28825000000001</v>
+          </cell>
+          <cell r="E12">
+            <v>16.460012589226661</v>
+          </cell>
+          <cell r="K12">
+            <v>77.968000000000004</v>
+          </cell>
+          <cell r="L12">
+            <v>4.36699450423286</v>
+          </cell>
+          <cell r="M12">
+            <v>24.73</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>110</v>
+          </cell>
+          <cell r="D13">
+            <v>103.0465909090909</v>
+          </cell>
+          <cell r="E13">
+            <v>13.69652323433497</v>
+          </cell>
+          <cell r="K13">
+            <v>116.1409090909091</v>
+          </cell>
+          <cell r="L13">
+            <v>89.758543183254503</v>
+          </cell>
+          <cell r="M13">
+            <v>24.618181818181821</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>120</v>
+          </cell>
+          <cell r="D14">
+            <v>129.36583333333331</v>
+          </cell>
+          <cell r="E14">
+            <v>14.95936855749229</v>
+          </cell>
+          <cell r="K14">
+            <v>110.371875</v>
+          </cell>
+          <cell r="L14">
+            <v>64.068736977895142</v>
+          </cell>
+          <cell r="M14">
+            <v>24.583333333333329</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>130</v>
+          </cell>
+          <cell r="D15">
+            <v>166.37326923076921</v>
+          </cell>
+          <cell r="E15">
+            <v>18.92700670479234</v>
+          </cell>
+          <cell r="K15">
+            <v>135.62442307692311</v>
+          </cell>
+          <cell r="L15">
+            <v>85.313685592472808</v>
+          </cell>
+          <cell r="M15">
+            <v>24.838461538461541</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>140</v>
+          </cell>
+          <cell r="D16">
+            <v>141.5994642857143</v>
+          </cell>
+          <cell r="E16">
+            <v>15.703023836865739</v>
+          </cell>
+          <cell r="K16">
+            <v>116.47125</v>
+          </cell>
+          <cell r="L16">
+            <v>79.898867349885776</v>
+          </cell>
+          <cell r="M16">
+            <v>24.25714285714286</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>150</v>
+          </cell>
+          <cell r="D17">
+            <v>143.30466666666669</v>
+          </cell>
+          <cell r="E17">
+            <v>17.286502454548501</v>
+          </cell>
+          <cell r="K17">
+            <v>104.2848333333333</v>
+          </cell>
+          <cell r="L17">
+            <v>68.829472014174272</v>
+          </cell>
+          <cell r="M17">
+            <v>23.32</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>160</v>
+          </cell>
+          <cell r="D18">
+            <v>249.09062499999999</v>
+          </cell>
+          <cell r="E18">
+            <v>25.254303469903899</v>
+          </cell>
+          <cell r="K18">
+            <v>172.82499999999999</v>
+          </cell>
+          <cell r="L18">
+            <v>132.7864576232268</v>
+          </cell>
+          <cell r="M18">
+            <v>26.675000000000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>170</v>
+          </cell>
+          <cell r="D19">
+            <v>188.90294117647059</v>
+          </cell>
+          <cell r="E19">
+            <v>19.21147094620698</v>
+          </cell>
+          <cell r="K19">
+            <v>105.8326470588235</v>
+          </cell>
+          <cell r="L19">
+            <v>48.167479372680972</v>
+          </cell>
+          <cell r="M19">
+            <v>23.764705882352938</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>180</v>
+          </cell>
+          <cell r="D20">
+            <v>213.23805555555549</v>
+          </cell>
+          <cell r="E20">
+            <v>28.526312565153159</v>
+          </cell>
+          <cell r="K20">
+            <v>136.57458333333341</v>
+          </cell>
+          <cell r="L20">
+            <v>89.944275228784448</v>
+          </cell>
+          <cell r="M20">
+            <v>23.977777777777781</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>190</v>
+          </cell>
+          <cell r="D21">
+            <v>224.5667105263158</v>
+          </cell>
+          <cell r="E21">
+            <v>25.944771952600341</v>
+          </cell>
+          <cell r="K21">
+            <v>127.7669736842105</v>
+          </cell>
+          <cell r="L21">
+            <v>80.988743446726218</v>
+          </cell>
+          <cell r="M21">
+            <v>24.147368421052629</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="D22">
+            <v>167.322</v>
+          </cell>
+          <cell r="E22">
+            <v>15.569599978804851</v>
+          </cell>
+          <cell r="K22">
+            <v>139.33837500000001</v>
+          </cell>
+          <cell r="L22">
+            <v>106.36452961036581</v>
+          </cell>
+          <cell r="M22">
+            <v>22.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -14163,8 +14587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T79" sqref="T79"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14175,39 +14599,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -14215,7 +14639,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>26.76</v>
@@ -14233,7 +14657,7 @@
         <v>26.4</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>50.875</v>
@@ -14253,7 +14677,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>30.5275</v>
@@ -14271,7 +14695,7 @@
         <v>29.8</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>47.657500000000013</v>
@@ -14291,7 +14715,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>26.855</v>
@@ -14309,7 +14733,7 @@
         <v>25.93333333333333</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>50.833333333333329</v>
@@ -14329,7 +14753,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>25.171250000000001</v>
@@ -14347,7 +14771,7 @@
         <v>23.175000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>52.448749999999997</v>
@@ -14405,7 +14829,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>30.095833333333331</v>
@@ -14423,7 +14847,7 @@
         <v>23.95</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>50.114166666666662</v>
@@ -14443,7 +14867,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>31.246428571428581</v>
@@ -14461,7 +14885,7 @@
         <v>22.38571428571429</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>42.746428571428567</v>
@@ -14481,7 +14905,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>32.480625000000003</v>
@@ -14499,7 +14923,7 @@
         <v>23.925000000000001</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>44.698124999999997</v>
@@ -14519,7 +14943,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>38.348888888888887</v>
@@ -14537,7 +14961,7 @@
         <v>24.966666666666669</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>49.007222222222218</v>
@@ -14595,7 +15019,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>36.604999999999997</v>
@@ -14613,7 +15037,7 @@
         <v>23.40909090909091</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>45.109090909090909</v>
@@ -14633,7 +15057,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>43.767916666666657</v>
@@ -14651,7 +15075,7 @@
         <v>24.983333333333331</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>51.095833333333339</v>
@@ -14671,7 +15095,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>54.369230769230761</v>
@@ -14689,7 +15113,7 @@
         <v>25.91538461538461</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>54.140384615384619</v>
@@ -14709,7 +15133,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>53.847142857142863</v>
@@ -14727,7 +15151,7 @@
         <v>26.06428571428571</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>55.398571428571429</v>
@@ -14785,7 +15209,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>47.704062500000013</v>
@@ -14803,7 +15227,7 @@
         <v>22.831250000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>50.549374999999998</v>
@@ -14823,7 +15247,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>63.158529411764697</v>
@@ -14841,7 +15265,7 @@
         <v>24.794117647058819</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>61.153823529411767</v>
@@ -14861,7 +15285,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>68.381944444444429</v>
@@ -14879,7 +15303,7 @@
         <v>25.233333333333331</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>56.33</v>
@@ -14899,7 +15323,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>63.181315789473693</v>
@@ -14917,7 +15341,7 @@
         <v>23.068421052631582</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>54.187105263157903</v>
@@ -14995,7 +15419,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>39.024999999999999</v>
@@ -15007,7 +15431,7 @@
         <v>0.15811388300841894</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>154.72499999999999</v>
@@ -15021,7 +15445,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>46.225000000000001</v>
@@ -15033,7 +15457,7 @@
         <v>0.6975230903263786</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>125.5</v>
@@ -15047,7 +15471,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>46.85</v>
@@ -15059,7 +15483,7 @@
         <v>4.1605596270521605</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>213.35</v>
@@ -15073,7 +15497,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>56.075000000000003</v>
@@ -15085,7 +15509,7 @@
         <v>7.4019661282731102</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>231.4</v>
@@ -15125,7 +15549,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>95.2</v>
@@ -15137,7 +15561,7 @@
         <v>26.165351918627842</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>272.72500000000002</v>
@@ -15151,7 +15575,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>122.35</v>
@@ -15163,7 +15587,7 @@
         <v>32.032475508138397</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>236.625</v>
@@ -15177,7 +15601,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>112.02500000000001</v>
@@ -15189,7 +15613,7 @@
         <v>25.985683928478167</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>234.35</v>
@@ -15203,7 +15627,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>172.72499999999999</v>
@@ -15215,7 +15639,7 @@
         <v>39.83812598568467</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>241.97499999999999</v>
@@ -15255,7 +15679,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>156.25</v>
@@ -15267,7 +15691,7 @@
         <v>24.307590879372935</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>221.875</v>
@@ -15281,7 +15705,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>219.42500000000001</v>
@@ -15293,7 +15717,7 @@
         <v>58.348153794974941</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38">
         <v>250.95</v>
@@ -15307,7 +15731,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>265.60000000000002</v>
@@ -15319,7 +15743,7 @@
         <v>42.633079729002567</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39">
         <v>258.07499999999999</v>
@@ -15333,7 +15757,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>255.72499999999999</v>
@@ -15345,7 +15769,7 @@
         <v>52.348921816830362</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>263.5</v>
@@ -15385,7 +15809,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>269.42500000000001</v>
@@ -15397,7 +15821,7 @@
         <v>53.924870576262528</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42">
         <v>293.32499999999999</v>
@@ -15411,7 +15835,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>315.55</v>
@@ -15423,7 +15847,7 @@
         <v>54.39831728166709</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43">
         <v>313.125</v>
@@ -15437,7 +15861,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>380.4</v>
@@ -15449,7 +15873,7 @@
         <v>76.053894520891319</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44">
         <v>297.60000000000002</v>
@@ -15463,7 +15887,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>351.32499999999999</v>
@@ -15475,7 +15899,7 @@
         <v>57.504687657304181</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45">
         <v>297.14999999999998</v>
@@ -15515,7 +15939,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -15524,7 +15948,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -15535,7 +15959,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>39.024999999999999</v>
@@ -15547,7 +15971,7 @@
         <v>0.15811388300841894</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>154.72499999999999</v>
@@ -15561,7 +15985,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>46.225000000000001</v>
@@ -15573,7 +15997,7 @@
         <v>0.6975230903263786</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52">
         <v>125.5</v>
@@ -15587,7 +16011,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>46.85</v>
@@ -15599,7 +16023,7 @@
         <v>4.1605596270521605</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>213.35</v>
@@ -15613,7 +16037,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>56.075000000000003</v>
@@ -15625,7 +16049,7 @@
         <v>7.4019661282731102</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>231.4</v>
@@ -15665,7 +16089,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>95.2</v>
@@ -15677,7 +16101,7 @@
         <v>26.165351918627842</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56">
         <v>272.72500000000002</v>
@@ -15691,7 +16115,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>122.35</v>
@@ -15703,7 +16127,7 @@
         <v>32.032475508138397</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57">
         <v>236.625</v>
@@ -15717,7 +16141,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>112.02500000000001</v>
@@ -15729,7 +16153,7 @@
         <v>25.985683928478167</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>234.35</v>
@@ -15743,7 +16167,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>172.72499999999999</v>
@@ -15755,7 +16179,7 @@
         <v>39.83812598568467</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59">
         <v>241.97499999999999</v>
@@ -15795,7 +16219,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>156.25</v>
@@ -15807,7 +16231,7 @@
         <v>24.307590879372935</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61">
         <v>221.875</v>
@@ -15821,7 +16245,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <v>219.42500000000001</v>
@@ -15833,7 +16257,7 @@
         <v>58.348153794974941</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62">
         <v>250.95</v>
@@ -15847,7 +16271,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>265.60000000000002</v>
@@ -15859,7 +16283,7 @@
         <v>42.633079729002567</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>258.07499999999999</v>
@@ -15873,7 +16297,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
         <v>255.72499999999999</v>
@@ -15885,7 +16309,7 @@
         <v>52.348921816830362</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <v>263.5</v>
@@ -15925,7 +16349,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>269.42500000000001</v>
@@ -15937,7 +16361,7 @@
         <v>53.924870576262528</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G66">
         <v>293.32499999999999</v>
@@ -15951,7 +16375,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>315.55</v>
@@ -15963,7 +16387,7 @@
         <v>54.39831728166709</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67">
         <v>319.67500000000001</v>
@@ -15977,7 +16401,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>380.4</v>
@@ -15989,7 +16413,7 @@
         <v>76.053894520891319</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G68">
         <v>297.60000000000002</v>
@@ -16003,7 +16427,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>351.32499999999999</v>
@@ -16015,7 +16439,7 @@
         <v>57.504687657304181</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69">
         <v>308.60000000000002</v>
@@ -16075,7 +16499,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -16087,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -16101,7 +16525,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>20</v>
@@ -16113,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -16127,7 +16551,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -16139,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -16153,7 +16577,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>40</v>
@@ -16165,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -16205,7 +16629,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>60</v>
@@ -16217,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81">
         <v>60</v>
@@ -16231,7 +16655,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -16243,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82">
         <v>70</v>
@@ -16257,7 +16681,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
         <v>80</v>
@@ -16269,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83">
         <v>80</v>
@@ -16283,7 +16707,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84">
         <v>90</v>
@@ -16295,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <v>90</v>
@@ -16335,7 +16759,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>110</v>
@@ -16347,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86">
         <v>110</v>
@@ -16361,7 +16785,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>120</v>
@@ -16373,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87">
         <v>120</v>
@@ -16387,7 +16811,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88">
         <v>130</v>
@@ -16399,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88">
         <v>130</v>
@@ -16413,7 +16837,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89">
         <v>140</v>
@@ -16425,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <v>140</v>
@@ -16465,7 +16889,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91">
         <v>160</v>
@@ -16477,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G91">
         <v>160</v>
@@ -16491,7 +16915,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>170</v>
@@ -16503,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G92">
         <v>168.375</v>
@@ -16517,7 +16941,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93">
         <v>180</v>
@@ -16529,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93">
         <v>180</v>
@@ -16543,7 +16967,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <v>190</v>
@@ -16555,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94">
         <v>188.97499999999999</v>
@@ -16604,7 +17028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
@@ -16612,7 +17036,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -16621,7 +17045,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -16632,7 +17056,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -16644,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>267.60000000000002</v>
@@ -16658,7 +17082,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.52500000000000002</v>
@@ -16670,7 +17094,7 @@
         <v>1.0374401434695166</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>610.54999999999995</v>
@@ -16684,7 +17108,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1.7749999999999999</v>
@@ -16696,7 +17120,7 @@
         <v>2.1895731933942675</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>805.65</v>
@@ -16710,7 +17134,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>7.75</v>
@@ -16722,7 +17146,7 @@
         <v>5.7008771254956896</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>1006.85</v>
@@ -16762,7 +17186,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>87.924999999999997</v>
@@ -16774,7 +17198,7 @@
         <v>38.73869562158152</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>1805.75</v>
@@ -16788,7 +17212,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>145.625</v>
@@ -16800,7 +17224,7 @@
         <v>60.630739220807286</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>2187.25</v>
@@ -16814,7 +17238,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>155.9</v>
@@ -16826,7 +17250,7 @@
         <v>52.57024604498983</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>2598.4499999999998</v>
@@ -16840,7 +17264,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>314.05</v>
@@ -16852,7 +17276,7 @@
         <v>99.383471256413443</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>3451.4</v>
@@ -16892,7 +17316,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>357.92500000000001</v>
@@ -16904,7 +17328,7 @@
         <v>85.634700461185318</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>4026.55</v>
@@ -16918,7 +17342,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>551.97500000000002</v>
@@ -16930,7 +17354,7 @@
         <v>169.63860341688374</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>5252.15</v>
@@ -16944,7 +17368,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>983</v>
@@ -16956,7 +17380,7 @@
         <v>190.21620627119322</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>7068</v>
@@ -16970,7 +17394,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>978.77499999999998</v>
@@ -16982,7 +17406,7 @@
         <v>200.67558811840243</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>7538.6</v>
@@ -17022,7 +17446,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>951.9</v>
@@ -17034,7 +17458,7 @@
         <v>209.28079530155489</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>7632.65</v>
@@ -17048,7 +17472,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1543.15</v>
@@ -17060,7 +17484,7 @@
         <v>241.67264890915786</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>10736.95</v>
@@ -17074,7 +17498,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1776.625</v>
@@ -17086,7 +17510,7 @@
         <v>272.49838272867527</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>12308.75</v>
@@ -17100,7 +17524,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1787.6</v>
@@ -17112,7 +17536,7 @@
         <v>298.571281700719</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>12004.45</v>
@@ -17152,7 +17576,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -17163,7 +17587,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>60.625</v>
@@ -17177,7 +17601,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>187.52500000000001</v>
@@ -17191,7 +17615,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>409.32499999999999</v>
@@ -17205,7 +17629,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>789.4</v>
@@ -17233,7 +17657,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>3333.7</v>
@@ -17247,7 +17671,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>5610.7250000000004</v>
@@ -17261,7 +17685,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>7516.3</v>
@@ -17275,7 +17699,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>11420.4</v>
@@ -17303,7 +17727,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>14896.3</v>
@@ -17317,7 +17741,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>24173.075000000001</v>
@@ -17331,7 +17755,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>37009.699999999997</v>
@@ -17345,7 +17769,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>43907.724999999999</v>
@@ -17373,7 +17797,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>48687.025000000001</v>
@@ -17387,7 +17811,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>77176.074999999997</v>
@@ -17401,7 +17825,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>90984.95</v>
@@ -17415,7 +17839,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>88190.774999999994</v>
@@ -17443,7 +17867,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -17454,7 +17878,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>125.75</v>
@@ -17468,7 +17892,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>300.64999999999998</v>
@@ -17482,7 +17906,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>573.20000000000005</v>
@@ -17496,7 +17920,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>994.67499999999995</v>
@@ -17524,7 +17948,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>3539.6</v>
@@ -17538,7 +17962,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>5565.6</v>
@@ -17552,7 +17976,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>6934.0249999999996</v>
@@ -17566,7 +17990,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>11071.25</v>
@@ -17594,7 +18018,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>14047.325000000001</v>
@@ -17608,7 +18032,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>20444.625</v>
@@ -17622,7 +18046,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>32824.300000000003</v>
@@ -17636,7 +18060,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>35985.775000000001</v>
@@ -17664,7 +18088,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>37571.525000000001</v>
@@ -17678,7 +18102,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>56065.55</v>
@@ -17692,7 +18116,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>62167</v>
@@ -17706,7 +18130,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>62645.324999999997</v>
@@ -17734,7 +18158,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -17745,7 +18169,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.67249999999999988</v>
@@ -17759,7 +18183,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>0.60750000000000015</v>
@@ -17773,7 +18197,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>0.59500000000000031</v>
@@ -17787,7 +18211,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>0.56750000000000012</v>
@@ -17815,7 +18239,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>0.50750000000000006</v>
@@ -17829,7 +18253,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
         <v>0.5</v>
@@ -17843,7 +18267,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>0.49000000000000005</v>
@@ -17857,7 +18281,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>0.49749999999999994</v>
@@ -17885,7 +18309,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>0.5</v>
@@ -17899,7 +18323,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>0.47250000000000003</v>
@@ -17913,7 +18337,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80">
         <v>0.49250000000000005</v>
@@ -17927,7 +18351,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <v>0.45749999999999991</v>
@@ -17955,7 +18379,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>0.41000000000000014</v>
@@ -17969,7 +18393,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <v>0.40000000000000019</v>
@@ -17983,7 +18407,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>0.40000000000000019</v>
@@ -17997,7 +18421,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>0.40000000000000019</v>

--- a/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
+++ b/memoria/escalar_agentes/4pasillo/4pasillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\escalar_agentes\4pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90897C6D-5AE9-4145-AB88-57816E5BAAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED4495-C644-4CFC-A685-561C508447AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="39">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -149,6 +150,12 @@
   </si>
   <si>
     <t>CR-MAPF</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>%STDEV</t>
   </si>
 </sst>
 </file>
@@ -2174,11 +2181,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$2</c:f>
+              <c:f>Hoja1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>makespan</c:v>
+                  <c:v>valores_ideales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5824,6 +5831,991 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> agentes en destino (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CR-MAPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$B$100:$B$119</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.2651726107670997</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.4304374670433542</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$B$100:$B$119</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.2651726107670997</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.4304374670433542</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$76:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8620-47AE-A731-C988C0CCA20C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[1]Hoja1!$I$76:$I$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[1]Hoja1!$I$76:$I$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$76:$J$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.044117647058826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.460526315789465</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8620-47AE-A731-C988C0CCA20C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo de agente</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>% de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6852,7 +7844,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7892,7 +8884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8931,6 +9923,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12544,6 +13576,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13175,14 +14723,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>630731</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>630731</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -13600,141 +15148,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>365873</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>298638</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo 12">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637A6DF5-80A1-4238-B587-2113EFA1799B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894B1887-EB27-4B9C-8705-588ECA944EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7642973" y="16848043"/>
-          <a:ext cx="1456765" cy="802341"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Aquí el promedio de agentes que llegarón</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>difieren poquisimo)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13864,425 +15310,22 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
-      <sheetName val="MARL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>CR-MAPF</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Baseline</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="K2" t="str">
-            <v>makespan</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>10</v>
-          </cell>
-          <cell r="D3">
-            <v>31.302499999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>0.25542856144135467</v>
-          </cell>
-          <cell r="K3">
-            <v>92.655000000000001</v>
-          </cell>
-          <cell r="L3">
-            <v>23.327751177513871</v>
-          </cell>
-          <cell r="M3">
-            <v>30.2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>20</v>
-          </cell>
-          <cell r="D4">
-            <v>25.1525</v>
-          </cell>
-          <cell r="E4">
-            <v>0.9981201080030403</v>
-          </cell>
-          <cell r="K4">
-            <v>71.075000000000003</v>
-          </cell>
-          <cell r="L4">
-            <v>16.02309271021047</v>
-          </cell>
-          <cell r="M4">
-            <v>23.2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>30</v>
-          </cell>
-          <cell r="D5">
-            <v>36.833333333333329</v>
-          </cell>
-          <cell r="E5">
-            <v>4.6372944698390679</v>
-          </cell>
-          <cell r="K5">
-            <v>72.335833333333341</v>
-          </cell>
-          <cell r="L5">
-            <v>10.70626345105207</v>
-          </cell>
-          <cell r="M5">
-            <v>23.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>40</v>
-          </cell>
-          <cell r="D6">
-            <v>41.52375</v>
-          </cell>
-          <cell r="E6">
-            <v>7.4426115838125</v>
-          </cell>
-          <cell r="K6">
-            <v>89.434375000000003</v>
-          </cell>
-          <cell r="L6">
-            <v>7.3338399890081467</v>
-          </cell>
-          <cell r="M6">
-            <v>20.675000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>50</v>
-          </cell>
-          <cell r="D7">
-            <v>41.94</v>
-          </cell>
-          <cell r="E7">
-            <v>5.059235120055205</v>
-          </cell>
-          <cell r="K7">
-            <v>61.522500000000001</v>
-          </cell>
-          <cell r="L7">
-            <v>7.018378997318397</v>
-          </cell>
-          <cell r="M7">
-            <v>22.3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>60</v>
-          </cell>
-          <cell r="D8">
-            <v>32.374583333333327</v>
-          </cell>
-          <cell r="E8">
-            <v>3.404255889283621</v>
-          </cell>
-          <cell r="K8">
-            <v>54.83</v>
-          </cell>
-          <cell r="L8">
-            <v>7.244915075033278</v>
-          </cell>
-          <cell r="M8">
-            <v>21.366666666666671</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>70</v>
-          </cell>
-          <cell r="D9">
-            <v>90.386071428571427</v>
-          </cell>
-          <cell r="E9">
-            <v>17.841585362287621</v>
-          </cell>
-          <cell r="K9">
-            <v>84.139285714285705</v>
-          </cell>
-          <cell r="L9">
-            <v>6.3562188333271594</v>
-          </cell>
-          <cell r="M9">
-            <v>23.714285714285719</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>80</v>
-          </cell>
-          <cell r="D10">
-            <v>103.37718750000001</v>
-          </cell>
-          <cell r="E10">
-            <v>15.50148150366905</v>
-          </cell>
-          <cell r="K10">
-            <v>103.076875</v>
-          </cell>
-          <cell r="L10">
-            <v>8.0548149177603712</v>
-          </cell>
-          <cell r="M10">
-            <v>25.087499999999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>90</v>
-          </cell>
-          <cell r="D11">
-            <v>106.1622222222222</v>
-          </cell>
-          <cell r="E11">
-            <v>14.95716513544224</v>
-          </cell>
-          <cell r="K11">
-            <v>91.162222222222226</v>
-          </cell>
-          <cell r="L11">
-            <v>5.6637104489356371</v>
-          </cell>
-          <cell r="M11">
-            <v>23.62222222222222</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>100</v>
-          </cell>
-          <cell r="D12">
-            <v>110.28825000000001</v>
-          </cell>
-          <cell r="E12">
-            <v>16.460012589226661</v>
-          </cell>
-          <cell r="K12">
-            <v>77.968000000000004</v>
-          </cell>
-          <cell r="L12">
-            <v>4.36699450423286</v>
-          </cell>
-          <cell r="M12">
-            <v>24.73</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>110</v>
-          </cell>
-          <cell r="D13">
-            <v>103.0465909090909</v>
-          </cell>
-          <cell r="E13">
-            <v>13.69652323433497</v>
-          </cell>
-          <cell r="K13">
-            <v>116.1409090909091</v>
-          </cell>
-          <cell r="L13">
-            <v>89.758543183254503</v>
-          </cell>
-          <cell r="M13">
-            <v>24.618181818181821</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>120</v>
-          </cell>
-          <cell r="D14">
-            <v>129.36583333333331</v>
-          </cell>
-          <cell r="E14">
-            <v>14.95936855749229</v>
-          </cell>
-          <cell r="K14">
-            <v>110.371875</v>
-          </cell>
-          <cell r="L14">
-            <v>64.068736977895142</v>
-          </cell>
-          <cell r="M14">
-            <v>24.583333333333329</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>130</v>
-          </cell>
-          <cell r="D15">
-            <v>166.37326923076921</v>
-          </cell>
-          <cell r="E15">
-            <v>18.92700670479234</v>
-          </cell>
-          <cell r="K15">
-            <v>135.62442307692311</v>
-          </cell>
-          <cell r="L15">
-            <v>85.313685592472808</v>
-          </cell>
-          <cell r="M15">
-            <v>24.838461538461541</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>140</v>
-          </cell>
-          <cell r="D16">
-            <v>141.5994642857143</v>
-          </cell>
-          <cell r="E16">
-            <v>15.703023836865739</v>
-          </cell>
-          <cell r="K16">
-            <v>116.47125</v>
-          </cell>
-          <cell r="L16">
-            <v>79.898867349885776</v>
-          </cell>
-          <cell r="M16">
-            <v>24.25714285714286</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>150</v>
-          </cell>
-          <cell r="D17">
-            <v>143.30466666666669</v>
-          </cell>
-          <cell r="E17">
-            <v>17.286502454548501</v>
-          </cell>
-          <cell r="K17">
-            <v>104.2848333333333</v>
-          </cell>
-          <cell r="L17">
-            <v>68.829472014174272</v>
-          </cell>
-          <cell r="M17">
-            <v>23.32</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>160</v>
-          </cell>
-          <cell r="D18">
-            <v>249.09062499999999</v>
-          </cell>
-          <cell r="E18">
-            <v>25.254303469903899</v>
-          </cell>
-          <cell r="K18">
-            <v>172.82499999999999</v>
-          </cell>
-          <cell r="L18">
-            <v>132.7864576232268</v>
-          </cell>
-          <cell r="M18">
-            <v>26.675000000000001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>170</v>
-          </cell>
-          <cell r="D19">
-            <v>188.90294117647059</v>
-          </cell>
-          <cell r="E19">
-            <v>19.21147094620698</v>
-          </cell>
-          <cell r="K19">
-            <v>105.8326470588235</v>
-          </cell>
-          <cell r="L19">
-            <v>48.167479372680972</v>
-          </cell>
-          <cell r="M19">
-            <v>23.764705882352938</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>180</v>
-          </cell>
-          <cell r="D20">
-            <v>213.23805555555549</v>
-          </cell>
-          <cell r="E20">
-            <v>28.526312565153159</v>
-          </cell>
-          <cell r="K20">
-            <v>136.57458333333341</v>
-          </cell>
-          <cell r="L20">
-            <v>89.944275228784448</v>
-          </cell>
-          <cell r="M20">
-            <v>23.977777777777781</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>190</v>
-          </cell>
-          <cell r="D21">
-            <v>224.5667105263158</v>
-          </cell>
-          <cell r="E21">
-            <v>25.944771952600341</v>
-          </cell>
-          <cell r="K21">
-            <v>127.7669736842105</v>
-          </cell>
-          <cell r="L21">
-            <v>80.988743446726218</v>
-          </cell>
-          <cell r="M21">
-            <v>24.147368421052629</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>200</v>
-          </cell>
-          <cell r="D22">
-            <v>167.322</v>
-          </cell>
-          <cell r="E22">
-            <v>15.569599978804851</v>
-          </cell>
-          <cell r="K22">
-            <v>139.33837500000001</v>
-          </cell>
-          <cell r="L22">
-            <v>106.36452961036581</v>
-          </cell>
-          <cell r="M22">
-            <v>22.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14583,12 +15626,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16321,7 +17650,7 @@
         <v>31.57814888779086</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -16347,7 +17676,7 @@
         <v>43.823977747815498</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -16373,7 +17702,7 @@
         <v>44.067772688707414</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -16399,7 +17728,7 @@
         <v>163.12436462200651</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -16425,7 +17754,7 @@
         <v>48.639859142845999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -16451,7 +17780,7 @@
         <v>119.41605784732167</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -16477,7 +17806,7 @@
         <v>47.342444500490821</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>8</v>
       </c>
@@ -16487,6 +17816,9 @@
       <c r="D75" t="s">
         <v>7</v>
       </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
       <c r="G75" t="s">
         <v>8</v>
       </c>
@@ -16496,8 +17828,11 @@
       <c r="I75" t="s">
         <v>7</v>
       </c>
+      <c r="J75" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -16510,6 +17845,10 @@
       <c r="D76">
         <v>0</v>
       </c>
+      <c r="E76">
+        <f>(B76/C76)*100</f>
+        <v>100</v>
+      </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
@@ -16522,8 +17861,12 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76">
+        <f>(G76/H76)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -16536,6 +17879,10 @@
       <c r="D77">
         <v>0</v>
       </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E95" si="0">(B77/C77)*100</f>
+        <v>100</v>
+      </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
@@ -16548,8 +17895,12 @@
       <c r="I77">
         <v>0</v>
       </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J95" si="1">(G77/H77)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -16562,6 +17913,10 @@
       <c r="D78">
         <v>0</v>
       </c>
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
@@ -16574,8 +17929,12 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -16588,6 +17947,10 @@
       <c r="D79">
         <v>0</v>
       </c>
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F79" t="s">
         <v>13</v>
       </c>
@@ -16600,8 +17963,12 @@
       <c r="I79">
         <v>0</v>
       </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -16614,6 +17981,10 @@
       <c r="D80">
         <v>0</v>
       </c>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F80" t="s">
         <v>1</v>
       </c>
@@ -16626,8 +17997,12 @@
       <c r="I80">
         <v>0</v>
       </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -16640,6 +18015,10 @@
       <c r="D81">
         <v>0</v>
       </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
@@ -16652,8 +18031,12 @@
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -16666,6 +18049,10 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
@@ -16678,8 +18065,12 @@
       <c r="I82">
         <v>0</v>
       </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -16692,6 +18083,10 @@
       <c r="D83">
         <v>0</v>
       </c>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
@@ -16704,8 +18099,12 @@
       <c r="I83">
         <v>0</v>
       </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -16718,6 +18117,10 @@
       <c r="D84">
         <v>0</v>
       </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
@@ -16730,8 +18133,12 @@
       <c r="I84">
         <v>0</v>
       </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -16744,6 +18151,10 @@
       <c r="D85">
         <v>0</v>
       </c>
+      <c r="E85">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F85" t="s">
         <v>2</v>
       </c>
@@ -16756,8 +18167,12 @@
       <c r="I85">
         <v>0</v>
       </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -16770,6 +18185,10 @@
       <c r="D86">
         <v>0</v>
       </c>
+      <c r="E86">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
@@ -16782,8 +18201,12 @@
       <c r="I86">
         <v>0</v>
       </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -16796,6 +18219,10 @@
       <c r="D87">
         <v>0</v>
       </c>
+      <c r="E87">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
@@ -16808,8 +18235,12 @@
       <c r="I87">
         <v>0</v>
       </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -16822,6 +18253,10 @@
       <c r="D88">
         <v>0</v>
       </c>
+      <c r="E88">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
@@ -16834,8 +18269,12 @@
       <c r="I88">
         <v>0</v>
       </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -16848,6 +18287,10 @@
       <c r="D89">
         <v>0</v>
       </c>
+      <c r="E89">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F89" t="s">
         <v>21</v>
       </c>
@@ -16860,8 +18303,12 @@
       <c r="I89">
         <v>0</v>
       </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -16874,6 +18321,10 @@
       <c r="D90">
         <v>0</v>
       </c>
+      <c r="E90">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
@@ -16886,8 +18337,12 @@
       <c r="I90">
         <v>0</v>
       </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -16900,6 +18355,10 @@
       <c r="D91">
         <v>0</v>
       </c>
+      <c r="E91">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
@@ -16912,8 +18371,12 @@
       <c r="I91">
         <v>0</v>
       </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -16926,6 +18389,10 @@
       <c r="D92">
         <v>0</v>
       </c>
+      <c r="E92">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F92" t="s">
         <v>23</v>
       </c>
@@ -16938,8 +18405,12 @@
       <c r="I92">
         <v>7.1814843833791038</v>
       </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>99.044117647058826</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -16952,6 +18423,10 @@
       <c r="D93">
         <v>0</v>
       </c>
+      <c r="E93">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F93" t="s">
         <v>24</v>
       </c>
@@ -16964,8 +18439,12 @@
       <c r="I93">
         <v>0</v>
       </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -16978,6 +18457,10 @@
       <c r="D94">
         <v>0</v>
       </c>
+      <c r="E94">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F94" t="s">
         <v>25</v>
       </c>
@@ -16990,8 +18473,12 @@
       <c r="I94">
         <v>6.4826692033451785</v>
       </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>99.460526315789465</v>
+      </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -17004,6 +18491,10 @@
       <c r="D95">
         <v>0</v>
       </c>
+      <c r="E95">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
@@ -17014,6 +18505,135 @@
         <v>200</v>
       </c>
       <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f>(I76/G76)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" ref="B101:B119" si="2">(I77/G77)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>4.2651726107670997</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>3.4304374670433542</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
